--- a/data/trans_bre/P1402-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1402-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.03676953802645988</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.226489479168279</v>
+        <v>1.226489479168277</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1641207525859747</v>
@@ -649,7 +649,7 @@
         <v>-0.003637276221921262</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1278960822608126</v>
+        <v>0.1278960822608125</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.705438990468495</v>
+        <v>-1.496926042873977</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.124060654817182</v>
+        <v>1.129738372838143</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.641555016733555</v>
+        <v>-2.414154682792595</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.941288293073972</v>
+        <v>-1.961649111139724</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1803393836715306</v>
+        <v>-0.1527977343433078</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1205825080704856</v>
+        <v>0.1302482519876369</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2315576215658995</v>
+        <v>-0.2125000837958043</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1696298745382291</v>
+        <v>-0.1727148907833522</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.200623484383789</v>
+        <v>4.494987686421391</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.868857069998013</v>
+        <v>6.042175738709657</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.258953938901686</v>
+        <v>2.551987714861362</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.089172384229721</v>
+        <v>4.450651409800741</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6508639399991892</v>
+        <v>0.7342859531634621</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9335872383016542</v>
+        <v>1.014568380677107</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2501332950603282</v>
+        <v>0.2766622780485736</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5019351689101139</v>
+        <v>0.5828363753209723</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>-0.146861885609711</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.08513477800808425</v>
+        <v>-0.08513477800808426</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.262986304157248</v>
+        <v>-1.389233520036221</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.5229102916811763</v>
+        <v>-0.6670967960871332</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.957610981433393</v>
+        <v>-3.865143139252411</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.969257505126756</v>
+        <v>-3.180993789992545</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1959577556117117</v>
+        <v>-0.2111960408182698</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.0625994487523661</v>
+        <v>-0.08063888719283539</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3867543024428262</v>
+        <v>-0.366350683245381</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2578643756722125</v>
+        <v>-0.2796235874987718</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.636240533721351</v>
+        <v>2.728336175698152</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.400243044329724</v>
+        <v>4.426760354149819</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.329823257017203</v>
+        <v>1.154412908761232</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.210875371950374</v>
+        <v>1.097678076065619</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5781571784029897</v>
+        <v>0.5933173082420039</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7627140125133062</v>
+        <v>0.7563431917039489</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1687165924271291</v>
+        <v>0.1517793085655258</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1388490655746033</v>
+        <v>0.1202305104927125</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.366137145423106</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-3.543944371725632</v>
+        <v>-3.543944371725631</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3525247501936004</v>
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4741734669916534</v>
+        <v>-0.4014032019465046</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.182969657358455</v>
+        <v>-4.191600084306098</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.177944370823322</v>
+        <v>-0.9571308156481382</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.598927136790888</v>
+        <v>-5.572071688684126</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.09775961745703468</v>
+        <v>-0.1013482619217353</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4239161430275475</v>
+        <v>-0.4230126382342431</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.165158067704396</v>
+        <v>-0.1315798131985258</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5087959720112959</v>
+        <v>-0.5051867947884463</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.532671164594515</v>
+        <v>3.408688475315717</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.118606566432063</v>
+        <v>0.7787628875745838</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.310753254379843</v>
+        <v>4.19774415565886</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.528713039312348</v>
+        <v>-1.566188327146539</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.990363427657676</v>
+        <v>0.992645745470355</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.165258066852059</v>
+        <v>0.105398042979455</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7940830483803271</v>
+        <v>0.8205812329137189</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.1793678898937423</v>
+        <v>-0.1811586538385234</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.190315294540575</v>
+        <v>-3.883696707439574</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.383819686409693</v>
+        <v>-4.262037101122796</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-5.688633876229648</v>
+        <v>-5.97815747110795</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.11583977232811</v>
+        <v>-4.288984796463352</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6801829660411923</v>
+        <v>-0.6485185602159573</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.506947437240444</v>
+        <v>-0.5106580670812996</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5730377051847126</v>
+        <v>-0.5985737992849133</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.439503614555528</v>
+        <v>-0.4654301413779915</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.618900739916423</v>
+        <v>1.99472144287542</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.760713295291715</v>
+        <v>1.847886129781001</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7880482830866685</v>
+        <v>0.7711134300591886</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.2778501845668827</v>
+        <v>-0.2711006412365391</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4635181566865485</v>
+        <v>0.6750843811144135</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3869656191663113</v>
+        <v>0.3362474515209434</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.138284985944318</v>
+        <v>0.1270551691592475</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.0214787214619426</v>
+        <v>-0.04319024300585308</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-0.3761765802676412</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-1.530056284481252</v>
+        <v>-1.530056284481253</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2259905951840398</v>
@@ -1049,7 +1049,7 @@
         <v>-0.04309403631383556</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.1644458360910447</v>
+        <v>-0.1644458360910448</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05676312920151391</v>
+        <v>0.098788808722718</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.1566341388402015</v>
+        <v>-0.1560284362360731</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.655665115038178</v>
+        <v>-1.731342953044131</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.614686941966015</v>
+        <v>-2.671192276711831</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.007418216672298358</v>
+        <v>0.01423139642477989</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.02103505008699841</v>
+        <v>-0.01774711090693878</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1766014450547856</v>
+        <v>-0.184693672093339</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2633407560041831</v>
+        <v>-0.2627986826681714</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.267104198955796</v>
+        <v>2.390561555341834</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.412920617972985</v>
+        <v>2.512147319809037</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.091625939842085</v>
+        <v>1.093534879939192</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.4160595339146132</v>
+        <v>-0.4028785441155781</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.450634978954528</v>
+        <v>0.4976762265894049</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3536706033172303</v>
+        <v>0.369736259175046</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1354855115950983</v>
+        <v>0.1365020680999568</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.04679147226802905</v>
+        <v>-0.04657853812395587</v>
       </c>
     </row>
     <row r="19">
